--- a/DataFiles_Excel/Maps/TopAwardRecipients/Top50DiscretionaryUS/Top50_Recipients_Discretionary_US_HHS.xlsx
+++ b/DataFiles_Excel/Maps/TopAwardRecipients/Top50DiscretionaryUS/Top50_Recipients_Discretionary_US_HHS.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ide\Desktop\annual-report-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2095,7 +2095,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2231,8 +2231,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2580,29 +2595,32 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2960,6 +2978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F614"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -2967,11 +2986,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
@@ -2979,8 +2998,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7"/>
@@ -3000,7 +3019,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3018,7 +3037,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3026,34 +3045,34 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -3095,7 +3114,7 @@
         <v>200388766</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -3115,7 +3134,7 @@
         <v>158759990</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -3135,7 +3154,7 @@
         <v>151942164</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -3155,7 +3174,7 @@
         <v>132410279</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -3175,7 +3194,7 @@
         <v>116934962</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -3195,7 +3214,7 @@
         <v>82250040</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -3255,7 +3274,7 @@
         <v>68887997</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -3275,7 +3294,7 @@
         <v>68025810</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
@@ -3295,7 +3314,7 @@
         <v>54401857</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
@@ -3355,7 +3374,7 @@
         <v>51174183</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
@@ -3375,7 +3394,7 @@
         <v>49489039</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
@@ -3415,7 +3434,7 @@
         <v>47153035</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
@@ -3455,7 +3474,7 @@
         <v>42839060</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -3475,7 +3494,7 @@
         <v>41019242</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>55</v>
       </c>
@@ -3515,7 +3534,7 @@
         <v>39983152</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>59</v>
       </c>
@@ -3535,7 +3554,7 @@
         <v>39404602</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>61</v>
       </c>
@@ -3615,7 +3634,7 @@
         <v>35385630</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>69</v>
       </c>
@@ -3635,7 +3654,7 @@
         <v>35160897</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>71</v>
       </c>
@@ -3655,7 +3674,7 @@
         <v>34154172</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>73</v>
       </c>
@@ -3675,7 +3694,7 @@
         <v>33151630</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>75</v>
       </c>
@@ -3715,7 +3734,7 @@
         <v>31889695</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>79</v>
       </c>
@@ -3735,7 +3754,7 @@
         <v>31863387</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
@@ -3755,7 +3774,7 @@
         <v>31788187</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>83</v>
       </c>
@@ -3795,7 +3814,7 @@
         <v>30105365</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>87</v>
       </c>
@@ -3815,7 +3834,7 @@
         <v>29582986</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>89</v>
       </c>
@@ -3835,7 +3854,7 @@
         <v>29055990</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>90</v>
       </c>
@@ -3855,7 +3874,7 @@
         <v>28612763</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>92</v>
       </c>
@@ -3895,7 +3914,7 @@
         <v>28119801</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
@@ -3915,7 +3934,7 @@
         <v>27890288</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>98</v>
       </c>
@@ -3935,7 +3954,7 @@
         <v>27223692</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>100</v>
       </c>
@@ -3955,7 +3974,7 @@
         <v>26807401</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>101</v>
       </c>
@@ -3975,7 +3994,7 @@
         <v>26506740</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>102</v>
       </c>
@@ -3995,7 +4014,7 @@
         <v>26248527</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>104</v>
       </c>
@@ -4055,7 +4074,7 @@
         <v>25074200</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>109</v>
       </c>
@@ -4115,7 +4134,7 @@
         <v>8204509</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>116</v>
       </c>
@@ -4135,7 +4154,7 @@
         <v>6824916</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>118</v>
       </c>
@@ -4175,7 +4194,7 @@
         <v>6079048</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>121</v>
       </c>
@@ -4215,7 +4234,7 @@
         <v>5625038</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>125</v>
       </c>
@@ -4295,7 +4314,7 @@
         <v>4938113</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>132</v>
       </c>
@@ -4355,7 +4374,7 @@
         <v>3797713</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>137</v>
       </c>
@@ -4395,7 +4414,7 @@
         <v>3484966</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>141</v>
       </c>
@@ -4435,7 +4454,7 @@
         <v>3370826</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>145</v>
       </c>
@@ -4475,7 +4494,7 @@
         <v>2681594</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>149</v>
       </c>
@@ -4495,7 +4514,7 @@
         <v>2674621</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>150</v>
       </c>
@@ -4515,7 +4534,7 @@
         <v>2643812</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>152</v>
       </c>
@@ -4615,7 +4634,7 @@
         <v>2024925</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>159</v>
       </c>
@@ -4655,7 +4674,7 @@
         <v>1918188</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>162</v>
       </c>
@@ -4675,7 +4694,7 @@
         <v>1847931</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>163</v>
       </c>
@@ -4695,7 +4714,7 @@
         <v>1825889</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>165</v>
       </c>
@@ -4775,7 +4794,7 @@
         <v>1618972</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>172</v>
       </c>
@@ -4795,7 +4814,7 @@
         <v>1564927</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>173</v>
       </c>
@@ -4815,7 +4834,7 @@
         <v>1511422</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>175</v>
       </c>
@@ -4835,7 +4854,7 @@
         <v>1491511</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>176</v>
       </c>
@@ -4855,7 +4874,7 @@
         <v>1487242</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>177</v>
       </c>
@@ -4895,7 +4914,7 @@
         <v>1418190</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>180</v>
       </c>
@@ -4955,7 +4974,7 @@
         <v>1270899</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>186</v>
       </c>
@@ -4975,7 +4994,7 @@
         <v>1104804</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>187</v>
       </c>
@@ -4995,7 +5014,7 @@
         <v>1100559</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>188</v>
       </c>
@@ -5055,7 +5074,7 @@
         <v>1067258</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>193</v>
       </c>
@@ -5075,7 +5094,7 @@
         <v>13217383</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>195</v>
       </c>
@@ -5095,7 +5114,7 @@
         <v>7495783</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>197</v>
       </c>
@@ -5155,7 +5174,7 @@
         <v>4993733</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>200</v>
       </c>
@@ -5195,7 +5214,7 @@
         <v>4544675</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>145</v>
       </c>
@@ -5215,7 +5234,7 @@
         <v>3919910</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>201</v>
       </c>
@@ -5275,7 +5294,7 @@
         <v>3555561</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>204</v>
       </c>
@@ -5295,7 +5314,7 @@
         <v>3310124</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>206</v>
       </c>
@@ -5335,7 +5354,7 @@
         <v>2727237</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>141</v>
       </c>
@@ -5375,7 +5394,7 @@
         <v>2515119</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>210</v>
       </c>
@@ -5395,7 +5414,7 @@
         <v>2467500</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>211</v>
       </c>
@@ -5475,7 +5494,7 @@
         <v>2244112</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>216</v>
       </c>
@@ -5495,7 +5514,7 @@
         <v>2203490</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>217</v>
       </c>
@@ -5555,7 +5574,7 @@
         <v>2121934</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>222</v>
       </c>
@@ -5575,7 +5594,7 @@
         <v>2077970</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>224</v>
       </c>
@@ -5595,7 +5614,7 @@
         <v>2049557</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>132</v>
       </c>
@@ -5635,7 +5654,7 @@
         <v>1987165</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>227</v>
       </c>
@@ -5675,7 +5694,7 @@
         <v>1958321</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>231</v>
       </c>
@@ -5755,7 +5774,7 @@
         <v>1835211</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>177</v>
       </c>
@@ -5775,7 +5794,7 @@
         <v>1805851</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>236</v>
       </c>
@@ -5955,7 +5974,7 @@
         <v>1580838</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>248</v>
       </c>
@@ -5975,7 +5994,7 @@
         <v>1579542</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>249</v>
       </c>
@@ -6115,7 +6134,7 @@
         <v>132515707</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>258</v>
       </c>
@@ -6135,7 +6154,7 @@
         <v>129048193</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>162</v>
       </c>
@@ -6155,7 +6174,7 @@
         <v>125785975</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>259</v>
       </c>
@@ -6235,7 +6254,7 @@
         <v>85526776</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>263</v>
       </c>
@@ -6255,7 +6274,7 @@
         <v>77738706</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>264</v>
       </c>
@@ -6295,7 +6314,7 @@
         <v>69868548</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>267</v>
       </c>
@@ -6355,7 +6374,7 @@
         <v>64655065</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>271</v>
       </c>
@@ -6375,7 +6394,7 @@
         <v>64104730</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>273</v>
       </c>
@@ -6415,7 +6434,7 @@
         <v>61795782</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>275</v>
       </c>
@@ -6455,7 +6474,7 @@
         <v>58442636</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>277</v>
       </c>
@@ -6495,7 +6514,7 @@
         <v>52794566</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>279</v>
       </c>
@@ -6535,7 +6554,7 @@
         <v>51850804</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>281</v>
       </c>
@@ -6555,7 +6574,7 @@
         <v>49194712</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>283</v>
       </c>
@@ -6595,7 +6614,7 @@
         <v>48842843</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>286</v>
       </c>
@@ -6615,7 +6634,7 @@
         <v>48185218</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>132</v>
       </c>
@@ -6655,7 +6674,7 @@
         <v>45980722</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>287</v>
       </c>
@@ -6675,7 +6694,7 @@
         <v>45603181</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>152</v>
       </c>
@@ -6695,7 +6714,7 @@
         <v>44411039</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>288</v>
       </c>
@@ -6715,7 +6734,7 @@
         <v>43610813</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>289</v>
       </c>
@@ -6775,7 +6794,7 @@
         <v>40907318</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>295</v>
       </c>
@@ -6815,7 +6834,7 @@
         <v>35463560</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>299</v>
       </c>
@@ -6835,7 +6854,7 @@
         <v>34708262</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>301</v>
       </c>
@@ -6915,7 +6934,7 @@
         <v>32410576</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>306</v>
       </c>
@@ -6935,7 +6954,7 @@
         <v>32303209</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>308</v>
       </c>
@@ -6975,7 +6994,7 @@
         <v>31888526</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>311</v>
       </c>
@@ -6995,7 +7014,7 @@
         <v>31666737</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>313</v>
       </c>
@@ -7075,7 +7094,7 @@
         <v>166793227</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>319</v>
       </c>
@@ -7095,7 +7114,7 @@
         <v>124572058</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>320</v>
       </c>
@@ -7135,7 +7154,7 @@
         <v>89904124</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>322</v>
       </c>
@@ -7155,7 +7174,7 @@
         <v>71426744</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>324</v>
       </c>
@@ -7175,7 +7194,7 @@
         <v>69636897</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>325</v>
       </c>
@@ -7195,7 +7214,7 @@
         <v>62108931</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>326</v>
       </c>
@@ -7215,7 +7234,7 @@
         <v>55231508</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>275</v>
       </c>
@@ -7255,7 +7274,7 @@
         <v>52435822</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>328</v>
       </c>
@@ -7275,7 +7294,7 @@
         <v>47971063</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>263</v>
       </c>
@@ -7295,7 +7314,7 @@
         <v>47123063</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>329</v>
       </c>
@@ -7315,7 +7334,7 @@
         <v>38170004</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>330</v>
       </c>
@@ -7335,7 +7354,7 @@
         <v>36625042</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>332</v>
       </c>
@@ -7355,7 +7374,7 @@
         <v>29116943</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>333</v>
       </c>
@@ -7375,7 +7394,7 @@
         <v>29062862</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>334</v>
       </c>
@@ -7395,7 +7414,7 @@
         <v>27248405</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>335</v>
       </c>
@@ -7415,7 +7434,7 @@
         <v>26197863</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>336</v>
       </c>
@@ -7435,7 +7454,7 @@
         <v>25155304</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>337</v>
       </c>
@@ -7455,7 +7474,7 @@
         <v>21125437</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>259</v>
       </c>
@@ -7475,7 +7494,7 @@
         <v>21007606</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>339</v>
       </c>
@@ -7515,7 +7534,7 @@
         <v>18951000</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>313</v>
       </c>
@@ -7535,7 +7554,7 @@
         <v>18850229</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>341</v>
       </c>
@@ -7575,7 +7594,7 @@
         <v>17462427</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>343</v>
       </c>
@@ -7615,7 +7634,7 @@
         <v>14449709</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>346</v>
       </c>
@@ -7675,7 +7694,7 @@
         <v>12379030</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>349</v>
       </c>
@@ -7735,7 +7754,7 @@
         <v>11276216</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>354</v>
       </c>
@@ -7755,7 +7774,7 @@
         <v>11011663</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>356</v>
       </c>
@@ -7855,7 +7874,7 @@
         <v>9659215</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>362</v>
       </c>
@@ -7875,7 +7894,7 @@
         <v>9357296</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>363</v>
       </c>
@@ -7915,7 +7934,7 @@
         <v>8945244</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>365</v>
       </c>
@@ -7935,7 +7954,7 @@
         <v>8823742</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>366</v>
       </c>
@@ -7995,7 +8014,7 @@
         <v>8246352</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>369</v>
       </c>
@@ -8075,7 +8094,7 @@
         <v>9461270</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>374</v>
       </c>
@@ -8115,7 +8134,7 @@
         <v>5196684</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>377</v>
       </c>
@@ -8135,7 +8154,7 @@
         <v>4425424</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>132</v>
       </c>
@@ -8155,7 +8174,7 @@
         <v>3940416</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>379</v>
       </c>
@@ -8175,7 +8194,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>380</v>
       </c>
@@ -8275,7 +8294,7 @@
         <v>2350060</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>387</v>
       </c>
@@ -8355,7 +8374,7 @@
         <v>2083795</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>152</v>
       </c>
@@ -8495,7 +8514,7 @@
         <v>1647348</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>400</v>
       </c>
@@ -8615,7 +8634,7 @@
         <v>1553664</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>281</v>
       </c>
@@ -8635,7 +8654,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>406</v>
       </c>
@@ -8755,7 +8774,7 @@
         <v>1343691</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>409</v>
       </c>
@@ -8795,7 +8814,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>413</v>
       </c>
@@ -8815,7 +8834,7 @@
         <v>1281760</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>414</v>
       </c>
@@ -8835,7 +8854,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>279</v>
       </c>
@@ -8875,7 +8894,7 @@
         <v>1138482</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>416</v>
       </c>
@@ -8895,7 +8914,7 @@
         <v>1126500</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>259</v>
       </c>
@@ -8915,7 +8934,7 @@
         <v>1118999</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>159</v>
       </c>
@@ -8975,7 +8994,7 @@
         <v>1093712</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>419</v>
       </c>
@@ -8995,7 +9014,7 @@
         <v>997750</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>275</v>
       </c>
@@ -9075,7 +9094,7 @@
         <v>182902531</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>259</v>
       </c>
@@ -9115,7 +9134,7 @@
         <v>105549833</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>264</v>
       </c>
@@ -9135,7 +9154,7 @@
         <v>101400927</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>424</v>
       </c>
@@ -9195,7 +9214,7 @@
         <v>53633222</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>271</v>
       </c>
@@ -9215,7 +9234,7 @@
         <v>52484893</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>425</v>
       </c>
@@ -9235,7 +9254,7 @@
         <v>52200784</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>313</v>
       </c>
@@ -9275,7 +9294,7 @@
         <v>46010665</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>273</v>
       </c>
@@ -9295,7 +9314,7 @@
         <v>43114428</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>426</v>
       </c>
@@ -9315,7 +9334,7 @@
         <v>40071147</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>427</v>
       </c>
@@ -9355,7 +9374,7 @@
         <v>34793371</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>295</v>
       </c>
@@ -9395,7 +9414,7 @@
         <v>32463272</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>263</v>
       </c>
@@ -9415,7 +9434,7 @@
         <v>27445980</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>429</v>
       </c>
@@ -9455,7 +9474,7 @@
         <v>26242369</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>283</v>
       </c>
@@ -9515,7 +9534,7 @@
         <v>25690092</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>432</v>
       </c>
@@ -9575,7 +9594,7 @@
         <v>23818162</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>186</v>
       </c>
@@ -9635,7 +9654,7 @@
         <v>21895878</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>436</v>
       </c>
@@ -9655,7 +9674,7 @@
         <v>21484361</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>438</v>
       </c>
@@ -9675,7 +9694,7 @@
         <v>20907296</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>267</v>
       </c>
@@ -9695,7 +9714,7 @@
         <v>20857520</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>132</v>
       </c>
@@ -9715,7 +9734,7 @@
         <v>19688906</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>275</v>
       </c>
@@ -9735,7 +9754,7 @@
         <v>19370764</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>289</v>
       </c>
@@ -9795,7 +9814,7 @@
         <v>18080105</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>441</v>
       </c>
@@ -9855,7 +9874,7 @@
         <v>16739976</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>446</v>
       </c>
@@ -9875,7 +9894,7 @@
         <v>16738811</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>447</v>
       </c>
@@ -9955,7 +9974,7 @@
         <v>16428607</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>187</v>
       </c>
@@ -9995,7 +10014,7 @@
         <v>16222780</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>451</v>
       </c>
@@ -10015,7 +10034,7 @@
         <v>16085995</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>453</v>
       </c>
@@ -10095,7 +10114,7 @@
         <v>8143456</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>460</v>
       </c>
@@ -10115,7 +10134,7 @@
         <v>5860856</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>461</v>
       </c>
@@ -10155,7 +10174,7 @@
         <v>3580488</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>464</v>
       </c>
@@ -10215,7 +10234,7 @@
         <v>2682349</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>469</v>
       </c>
@@ -10235,7 +10254,7 @@
         <v>2531718</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>470</v>
       </c>
@@ -10295,7 +10314,7 @@
         <v>2250743</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>476</v>
       </c>
@@ -10315,7 +10334,7 @@
         <v>2147028</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>478</v>
       </c>
@@ -10335,7 +10354,7 @@
         <v>2005737</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>479</v>
       </c>
@@ -10375,7 +10394,7 @@
         <v>1706109</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>482</v>
       </c>
@@ -10395,7 +10414,7 @@
         <v>1672885</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>484</v>
       </c>
@@ -10435,7 +10454,7 @@
         <v>1581236</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>487</v>
       </c>
@@ -10495,7 +10514,7 @@
         <v>1421702</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>493</v>
       </c>
@@ -10535,7 +10554,7 @@
         <v>1383486</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>497</v>
       </c>
@@ -10595,7 +10614,7 @@
         <v>1340392</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>502</v>
       </c>
@@ -10715,7 +10734,7 @@
         <v>1181610</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>514</v>
       </c>
@@ -10735,7 +10754,7 @@
         <v>1179258</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>516</v>
       </c>
@@ -10815,7 +10834,7 @@
         <v>1122643</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>524</v>
       </c>
@@ -10835,7 +10854,7 @@
         <v>1118084</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>526</v>
       </c>
@@ -10855,7 +10874,7 @@
         <v>1113070</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>527</v>
       </c>
@@ -10875,7 +10894,7 @@
         <v>1099600</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>528</v>
       </c>
@@ -10895,7 +10914,7 @@
         <v>1087094</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>529</v>
       </c>
@@ -10915,7 +10934,7 @@
         <v>1084911</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>531</v>
       </c>
@@ -10975,7 +10994,7 @@
         <v>1063807</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>535</v>
       </c>
@@ -10995,7 +11014,7 @@
         <v>1062394</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>537</v>
       </c>
@@ -11015,7 +11034,7 @@
         <v>1051141</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>539</v>
       </c>
@@ -11035,7 +11054,7 @@
         <v>1045388</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>541</v>
       </c>
@@ -11075,7 +11094,7 @@
         <v>616254670</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>132</v>
       </c>
@@ -11195,7 +11214,7 @@
         <v>407207703</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>544</v>
       </c>
@@ -11215,7 +11234,7 @@
         <v>405880559</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>109</v>
       </c>
@@ -11295,7 +11314,7 @@
         <v>396107569</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>175</v>
       </c>
@@ -11375,7 +11394,7 @@
         <v>300358166</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>150</v>
       </c>
@@ -11415,7 +11434,7 @@
         <v>293452364</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>141</v>
       </c>
@@ -11435,7 +11454,7 @@
         <v>281749238</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>546</v>
       </c>
@@ -11475,7 +11494,7 @@
         <v>269254509</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>177</v>
       </c>
@@ -11495,7 +11514,7 @@
         <v>228849232</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>547</v>
       </c>
@@ -11635,7 +11654,7 @@
         <v>200817191</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>188</v>
       </c>
@@ -11655,7 +11674,7 @@
         <v>197638269</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>552</v>
       </c>
@@ -11675,7 +11694,7 @@
         <v>194550699</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>125</v>
       </c>
@@ -11715,7 +11734,7 @@
         <v>184663847</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>116</v>
       </c>
@@ -11775,7 +11794,7 @@
         <v>174061354</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>554</v>
       </c>
@@ -11935,7 +11954,7 @@
         <v>142715019</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>206</v>
       </c>
@@ -11995,7 +12014,7 @@
         <v>139719210</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>152</v>
       </c>
@@ -12015,7 +12034,7 @@
         <v>137794486</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>162</v>
       </c>
@@ -12035,7 +12054,7 @@
         <v>132896284</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>561</v>
       </c>
@@ -12055,7 +12074,7 @@
         <v>132028526</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>141</v>
       </c>
@@ -12135,7 +12154,7 @@
         <v>3575000</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>565</v>
       </c>
@@ -12235,7 +12254,7 @@
         <v>708700</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>568</v>
       </c>
@@ -12255,7 +12274,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>569</v>
       </c>
@@ -12315,7 +12334,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="474" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>267</v>
       </c>
@@ -12335,7 +12354,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="475" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>275</v>
       </c>
@@ -12375,7 +12394,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="477" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>279</v>
       </c>
@@ -12395,7 +12414,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>572</v>
       </c>
@@ -12515,7 +12534,7 @@
         <v>199589</v>
       </c>
     </row>
-    <row r="484" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>579</v>
       </c>
@@ -12575,7 +12594,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="487" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>583</v>
       </c>
@@ -12635,7 +12654,7 @@
         <v>-7456</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>585</v>
       </c>
@@ -12655,7 +12674,7 @@
         <v>-50317</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>152</v>
       </c>
@@ -12735,7 +12754,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>287</v>
       </c>
@@ -12835,7 +12854,7 @@
         <v>274965</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>591</v>
       </c>
@@ -12915,7 +12934,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>595</v>
       </c>
@@ -12935,7 +12954,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>163</v>
       </c>
@@ -12955,7 +12974,7 @@
         <v>87883</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>596</v>
       </c>
@@ -13015,7 +13034,7 @@
         <v>-18456</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>599</v>
       </c>
@@ -13055,7 +13074,7 @@
         <v>-73226</v>
       </c>
     </row>
-    <row r="511" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>600</v>
       </c>
@@ -13075,7 +13094,7 @@
         <v>-79742</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>601</v>
       </c>
@@ -13115,7 +13134,7 @@
         <v>-1662906</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>602</v>
       </c>
@@ -13135,7 +13154,7 @@
         <v>-2833475</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>604</v>
       </c>
@@ -13155,7 +13174,7 @@
         <v>20081350</v>
       </c>
     </row>
-    <row r="516" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>606</v>
       </c>
@@ -13215,7 +13234,7 @@
         <v>9915582</v>
       </c>
     </row>
-    <row r="519" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>607</v>
       </c>
@@ -13235,7 +13254,7 @@
         <v>8811300</v>
       </c>
     </row>
-    <row r="520" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>263</v>
       </c>
@@ -13295,7 +13314,7 @@
         <v>6710000</v>
       </c>
     </row>
-    <row r="523" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>609</v>
       </c>
@@ -13315,7 +13334,7 @@
         <v>6217969</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>301</v>
       </c>
@@ -13395,7 +13414,7 @@
         <v>5479626</v>
       </c>
     </row>
-    <row r="528" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>283</v>
       </c>
@@ -13415,7 +13434,7 @@
         <v>5414626</v>
       </c>
     </row>
-    <row r="529" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>308</v>
       </c>
@@ -13455,7 +13474,7 @@
         <v>5279647</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>612</v>
       </c>
@@ -13495,7 +13514,7 @@
         <v>4937235</v>
       </c>
     </row>
-    <row r="533" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>614</v>
       </c>
@@ -13515,7 +13534,7 @@
         <v>4860000</v>
       </c>
     </row>
-    <row r="534" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>295</v>
       </c>
@@ -13555,7 +13574,7 @@
         <v>4385000</v>
       </c>
     </row>
-    <row r="536" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>615</v>
       </c>
@@ -13575,7 +13594,7 @@
         <v>4349900</v>
       </c>
     </row>
-    <row r="537" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>275</v>
       </c>
@@ -13595,7 +13614,7 @@
         <v>4205000</v>
       </c>
     </row>
-    <row r="538" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>616</v>
       </c>
@@ -13615,7 +13634,7 @@
         <v>4175000</v>
       </c>
     </row>
-    <row r="539" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>618</v>
       </c>
@@ -13715,7 +13734,7 @@
         <v>3794000</v>
       </c>
     </row>
-    <row r="544" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>277</v>
       </c>
@@ -13755,7 +13774,7 @@
         <v>3698000</v>
       </c>
     </row>
-    <row r="546" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>279</v>
       </c>
@@ -13775,7 +13794,7 @@
         <v>3603461</v>
       </c>
     </row>
-    <row r="547" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>621</v>
       </c>
@@ -13835,7 +13854,7 @@
         <v>3354000</v>
       </c>
     </row>
-    <row r="550" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>623</v>
       </c>
@@ -13855,7 +13874,7 @@
         <v>3081600</v>
       </c>
     </row>
-    <row r="551" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>625</v>
       </c>
@@ -13875,7 +13894,7 @@
         <v>3031435</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>267</v>
       </c>
@@ -13915,7 +13934,7 @@
         <v>2894432</v>
       </c>
     </row>
-    <row r="554" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>627</v>
       </c>
@@ -13955,7 +13974,7 @@
         <v>2759000</v>
       </c>
     </row>
-    <row r="556" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>630</v>
       </c>
@@ -13975,7 +13994,7 @@
         <v>2729838</v>
       </c>
     </row>
-    <row r="557" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>631</v>
       </c>
@@ -13995,7 +14014,7 @@
         <v>2719145</v>
       </c>
     </row>
-    <row r="558" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>632</v>
       </c>
@@ -14055,7 +14074,7 @@
         <v>2485766</v>
       </c>
     </row>
-    <row r="561" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>635</v>
       </c>
@@ -14075,7 +14094,7 @@
         <v>2473000</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>311</v>
       </c>
@@ -14095,7 +14114,7 @@
         <v>2438026</v>
       </c>
     </row>
-    <row r="563" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>572</v>
       </c>
@@ -14115,7 +14134,7 @@
         <v>2272209</v>
       </c>
     </row>
-    <row r="564" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
         <v>636</v>
       </c>
@@ -14135,7 +14154,7 @@
         <v>2214990</v>
       </c>
     </row>
-    <row r="565" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>637</v>
       </c>
@@ -14155,7 +14174,7 @@
         <v>13618364</v>
       </c>
     </row>
-    <row r="566" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>639</v>
       </c>
@@ -14175,7 +14194,7 @@
         <v>10877987</v>
       </c>
     </row>
-    <row r="567" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>640</v>
       </c>
@@ -14195,7 +14214,7 @@
         <v>10435061</v>
       </c>
     </row>
-    <row r="568" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>642</v>
       </c>
@@ -14215,7 +14234,7 @@
         <v>10307255</v>
       </c>
     </row>
-    <row r="569" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>275</v>
       </c>
@@ -14235,7 +14254,7 @@
         <v>10092367</v>
       </c>
     </row>
-    <row r="570" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>643</v>
       </c>
@@ -14255,7 +14274,7 @@
         <v>10032616</v>
       </c>
     </row>
-    <row r="571" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>644</v>
       </c>
@@ -14275,7 +14294,7 @@
         <v>9569803</v>
       </c>
     </row>
-    <row r="572" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>175</v>
       </c>
@@ -14295,7 +14314,7 @@
         <v>9129743</v>
       </c>
     </row>
-    <row r="573" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>645</v>
       </c>
@@ -14315,7 +14334,7 @@
         <v>7714582</v>
       </c>
     </row>
-    <row r="574" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>646</v>
       </c>
@@ -14355,7 +14374,7 @@
         <v>7406418</v>
       </c>
     </row>
-    <row r="576" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>308</v>
       </c>
@@ -14415,7 +14434,7 @@
         <v>7015999</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>650</v>
       </c>
@@ -14515,7 +14534,7 @@
         <v>6171000</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>656</v>
       </c>
@@ -14575,7 +14594,7 @@
         <v>5700000</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
         <v>658</v>
       </c>
@@ -14615,7 +14634,7 @@
         <v>5585237</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
         <v>326</v>
       </c>
@@ -14655,7 +14674,7 @@
         <v>5367195</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
         <v>663</v>
       </c>
@@ -14675,7 +14694,7 @@
         <v>5361649</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>263</v>
       </c>
@@ -14715,7 +14734,7 @@
         <v>5204400</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
         <v>666</v>
       </c>
@@ -14735,7 +14754,7 @@
         <v>5064000</v>
       </c>
     </row>
-    <row r="595" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
         <v>667</v>
       </c>
@@ -14755,7 +14774,7 @@
         <v>5061098</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
         <v>330</v>
       </c>
@@ -14775,7 +14794,7 @@
         <v>5011078</v>
       </c>
     </row>
-    <row r="597" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
         <v>267</v>
       </c>
@@ -14795,7 +14814,7 @@
         <v>4864187</v>
       </c>
     </row>
-    <row r="598" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
         <v>325</v>
       </c>
@@ -14815,7 +14834,7 @@
         <v>4750000</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
         <v>668</v>
       </c>
@@ -14835,7 +14854,7 @@
         <v>4623986</v>
       </c>
     </row>
-    <row r="600" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
         <v>669</v>
       </c>
@@ -14875,7 +14894,7 @@
         <v>4615571</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
         <v>672</v>
       </c>
@@ -14895,7 +14914,7 @@
         <v>4604581</v>
       </c>
     </row>
-    <row r="603" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
         <v>673</v>
       </c>
@@ -14915,7 +14934,7 @@
         <v>4529180</v>
       </c>
     </row>
-    <row r="604" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
         <v>572</v>
       </c>
@@ -14935,7 +14954,7 @@
         <v>4507564</v>
       </c>
     </row>
-    <row r="605" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
         <v>674</v>
       </c>
@@ -15015,7 +15034,7 @@
         <v>4283875</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
         <v>680</v>
       </c>
@@ -15055,7 +15074,7 @@
         <v>4199976</v>
       </c>
     </row>
-    <row r="611" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
         <v>683</v>
       </c>
@@ -15095,7 +15114,7 @@
         <v>3973507</v>
       </c>
     </row>
-    <row r="613" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
         <v>685</v>
       </c>
@@ -15115,7 +15134,7 @@
         <v>3899375</v>
       </c>
     </row>
-    <row r="614" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
         <v>687</v>
       </c>
